--- a/Логлайн, майндмеп и пр/Tennis.xlsx
+++ b/Логлайн, майндмеп и пр/Tennis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Интерация</t>
   </si>
@@ -28,24 +28,9 @@
     <t>III</t>
   </si>
   <si>
-    <t>IV</t>
-  </si>
-  <si>
     <t>Сроки</t>
   </si>
   <si>
-    <t>22.09-06.10</t>
-  </si>
-  <si>
-    <t>06.10-20.10</t>
-  </si>
-  <si>
-    <t>20.10-03.11</t>
-  </si>
-  <si>
-    <t>03.11-17.10</t>
-  </si>
-  <si>
     <t>Как это будет выглядеть</t>
   </si>
   <si>
@@ -58,62 +43,62 @@
     <t>Задачи</t>
   </si>
   <si>
-    <t>Ракетка игрока двигается согласно движению мыши</t>
-  </si>
-  <si>
-    <t>Управление игроком</t>
-  </si>
-  <si>
-    <t>Перемещать игрока согласно движению мыши</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Нарисовать сам прямоугольник (игрока)
-•Создать управление игрока за счет движения мыши
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>01.06-07.06</t>
+  </si>
+  <si>
+    <t>08.06-15.06</t>
+  </si>
+  <si>
+    <t>15.06-22.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мяч станет круглым
+Игра будет вертикальной </t>
+  </si>
+  <si>
+    <t>Изменение формы мяча и ориентации игры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Играть круглым мячом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Изменить прорисовку мяча с квадратного на круглый
+• Пофиксить условие столкновения с полом и потолком
+• Изменить оси 
 </t>
   </si>
   <si>
-    <t>Мяч отбивается от стен и от ракетки игрока</t>
-  </si>
-  <si>
-    <t>Появление мяча</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отбивать мяч ракеткой игрока </t>
-  </si>
-  <si>
-    <t>•Обработать отталкивание мяча от стен
-•Отрисовать мяч и его скорость
-•Обработать коллизии игрока с мячом</t>
-  </si>
-  <si>
-    <t>Добавление ИИ врага</t>
-  </si>
-  <si>
-    <t>Появление врага</t>
-  </si>
-  <si>
-    <t>Отбивать атаки врага</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Обработать коллизии мяча с врагом
+    <t xml:space="preserve">Игра будет оформлена в виде игровой приставки </t>
+  </si>
+  <si>
+    <t>Код на ооп + редизайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Играть в игру с оформленной приставкой </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Переписать код на ооп
+• Найти и вставить приставку </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменение лагов с приставкой </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проческа кода </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Увидит меньше лагов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Сделать картинку приставки background'ом
+• Обрабатывать движение противника с помощью координат, без скоростей
+• Вставить канвас корректно
+• Сделать канвас динамическим
+• Исправить баг в движении игрока
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда мячик отбивается от ракетки игрока, его скорость увеличивается             </t>
-  </si>
-  <si>
-    <t>Усложнение игры</t>
-  </si>
-  <si>
-    <t>Играть в усложненном уровне</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Отрегулировать изменение скорости после каждой коллизии с игроком
-•Следить за максимальной скоростью
-</t>
-  </si>
-  <si>
-    <t>Tennis</t>
   </si>
 </sst>
 </file>
@@ -283,7 +268,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -296,6 +280,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -597,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F17"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -609,26 +594,23 @@
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,102 +623,84 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="17" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
